--- a/data/trans_orig/CONTINENTE_NAC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Edad-trans_orig.xlsx
@@ -966,12 +966,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3690,97 +3690,97 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4598,12 +4598,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4613,12 +4613,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4711,97 +4711,97 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>331</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K39" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="inlineStr">
-        <is>
-          <t>329</t>
-        </is>
-      </c>
-      <c r="N39" s="2" t="inlineStr">
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O39" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
-      <c r="U39" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5393,12 +5393,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5408,12 +5408,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -5506,97 +5506,97 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>0,29%</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>313</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -5619,12 +5619,12 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
@@ -5634,12 +5634,12 @@
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
@@ -6414,97 +6414,97 @@
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K54" s="2" t="inlineStr">
+      <c r="R54" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="N54" s="2" t="inlineStr">
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O54" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W54" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6527,97 +6527,97 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K55" s="2" t="inlineStr">
+      <c r="R55" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="inlineStr">
-        <is>
-          <t>318</t>
-        </is>
-      </c>
-      <c r="N55" s="2" t="inlineStr">
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U55" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O55" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="U55" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W55" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6640,12 +6640,12 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -6655,12 +6655,12 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
@@ -8473,97 +8473,97 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1196</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>1206</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8621,12 +8621,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8636,12 +8636,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9268,12 +9268,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9283,12 +9283,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9381,12 +9381,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9396,12 +9396,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10289,97 +10289,97 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1213</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>1171</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>1194</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11197,12 +11197,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -11212,12 +11212,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -11310,12 +11310,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -11325,12 +11325,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -11992,97 +11992,97 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>1214</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K37" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="inlineStr">
-        <is>
-          <t>1164</t>
-        </is>
-      </c>
-      <c r="N37" s="2" t="inlineStr">
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O37" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr">
-        <is>
-          <t>1190</t>
-        </is>
-      </c>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -12105,12 +12105,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -12120,12 +12120,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -13013,97 +13013,97 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>619</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K46" s="2" t="inlineStr">
+      <c r="R46" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="inlineStr">
-        <is>
-          <t>743</t>
-        </is>
-      </c>
-      <c r="N46" s="2" t="inlineStr">
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O46" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr">
-        <is>
-          <t>677</t>
-        </is>
-      </c>
-      <c r="U46" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W46" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14034,97 +14034,97 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K55" s="2" t="inlineStr">
+      <c r="R55" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="inlineStr">
-        <is>
-          <t>767</t>
-        </is>
-      </c>
-      <c r="N55" s="2" t="inlineStr">
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U55" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O55" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr">
-        <is>
-          <t>681</t>
-        </is>
-      </c>
-      <c r="U55" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W55" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -15980,12 +15980,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -15995,12 +15995,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -19612,12 +19612,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -19627,12 +19627,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -19873,12 +19873,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -19888,12 +19888,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -20407,12 +20407,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -20422,12 +20422,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -20520,12 +20520,12 @@
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
@@ -20535,12 +20535,12 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
@@ -21463,12 +21463,12 @@
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -21478,12 +21478,12 @@
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -21541,97 +21541,97 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>682</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K55" s="2" t="inlineStr">
+      <c r="R55" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="inlineStr">
-        <is>
-          <t>706</t>
-        </is>
-      </c>
-      <c r="N55" s="2" t="inlineStr">
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U55" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O55" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr">
-        <is>
-          <t>699</t>
-        </is>
-      </c>
-      <c r="U55" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V55" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W55" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -21654,12 +21654,12 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
@@ -21669,12 +21669,12 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr">

--- a/data/trans_orig/CONTINENTE_NAC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONTINENTE_NAC-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en País Vasco</t>
+          <t>Continente de nacimiento en País Vasco (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8052,7 +8052,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en C.Valenciana</t>
+          <t>Continente de nacimiento en C.Valenciana (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -15559,7 +15559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Continente de nacimiento en Barcelona</t>
+          <t>Continente de nacimiento en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
